--- a/레이아웃.xlsx
+++ b/레이아웃.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\hangook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC109993-33DD-4DF0-9E73-926868F38F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E400BC-B2A6-46F0-A3E0-120E4AADB9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2906" yWindow="806" windowWidth="24137" windowHeight="16723" activeTab="1" xr2:uid="{C726BFC1-B0F5-4608-BECF-C7CDA84B8AE7}"/>
+    <workbookView xWindow="18806" yWindow="909" windowWidth="13868" windowHeight="16722" xr2:uid="{C726BFC1-B0F5-4608-BECF-C7CDA84B8AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="기간별시세" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="235">
   <si>
     <t>String</t>
   </si>
@@ -672,13 +672,88 @@
   </si>
   <si>
     <t>"etc_corp_ntby_tr_pbmn , "\</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>한글명</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>FID_COND_MRKT_DIV_CODE</t>
+  </si>
+  <si>
+    <t>시장 분류 코드</t>
+  </si>
+  <si>
+    <t>J : 주식, ETF, ETN</t>
+  </si>
+  <si>
+    <t>FID_INPUT_ISCD</t>
+  </si>
+  <si>
+    <t>종목코드</t>
+  </si>
+  <si>
+    <t>종목번호 (6자리)</t>
+  </si>
+  <si>
+    <t>ETN의 경우, Q로 시작 (EX. Q500001)</t>
+  </si>
+  <si>
+    <t>FID_INPUT_DATE_1</t>
+  </si>
+  <si>
+    <t>입력 날짜 (시작)</t>
+  </si>
+  <si>
+    <t>조회 시작일자 (ex. 20220501)</t>
+  </si>
+  <si>
+    <t>FID_INPUT_DATE_2</t>
+  </si>
+  <si>
+    <t>입력 날짜 (종료)</t>
+  </si>
+  <si>
+    <t>조회 종료일자 (ex. 20220530)</t>
+  </si>
+  <si>
+    <t>FID_PERIOD_DIV_CODE</t>
+  </si>
+  <si>
+    <t>기간분류코드</t>
+  </si>
+  <si>
+    <t>D:일봉, W:주봉, M:월봉, Y:년봉</t>
+  </si>
+  <si>
+    <t>FID_ORG_ADJ_PRC</t>
+  </si>
+  <si>
+    <t>수정주가 원주가 가격 여부</t>
+  </si>
+  <si>
+    <t>0:수정주가 1:원주가</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,8 +801,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +827,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,21 +866,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -806,6 +890,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,986 +1214,1141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCEB157-BE3D-41AB-8A3A-0C46FCE34F8D}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>18</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>18</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>10</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
         <v>11</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
         <v>11</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
         <v>18</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
         <v>22</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
         <v>18</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
         <v>11</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
         <v>14</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
         <v>11</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="46.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:6" ht="34.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
         <v>13</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="D32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="34.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
         <v>8</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
         <v>10</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
         <v>10</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
         <v>10</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
         <v>10</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
         <v>18</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
         <v>18</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="C40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
         <v>2</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="2" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="2" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="2" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="2" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="2" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="2" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="2" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
         <v>11</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
         <v>10</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
         <v>2</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="34.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="34.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="34.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="34.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="34.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>32</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="C40:C47"/>
@@ -2117,7 +2365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894C575A-9E28-4753-9543-933527391002}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2127,43 +2375,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>40</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1"/>
       <c r="G2" t="str">
         <f>CONCATENATE("""",A2," varchar","(",E2,")", " ,", """", "\")</f>
         <v>"hts_kor_isnm varchar(40) ,"\</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="7"/>
       <c r="J2" t="s">
         <v>158</v>
       </c>
@@ -2175,33 +2423,33 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="34.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>9</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G27" si="0">CONCATENATE("""",A3," varchar","(",E3,")", " ,", """", "\")</f>
         <v>"mksc_shrn_iscd varchar(9) ,"\</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="7"/>
       <c r="J3" t="s">
         <v>159</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:P27" si="1">CONCATENATE("""",A3," , ""\")</f>
+        <f t="shared" ref="N3:N27" si="1">CONCATENATE("""",A3," , ""\")</f>
         <v>"mksc_shrn_iscd , "\</v>
       </c>
       <c r="P3" t="s">
@@ -2209,22 +2457,22 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>"ntby_qty varchar(18) ,"\</v>
@@ -2241,22 +2489,22 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>"stck_prpr varchar(10) ,"\</v>
@@ -2273,22 +2521,22 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>"prdy_vrss_sign varchar(1) ,"\</v>
@@ -2305,22 +2553,22 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="1"/>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>"prdy_vrss varchar(10) ,"\</v>
@@ -2337,22 +2585,22 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="1"/>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>"prdy_ctrt varchar(8) ,"\</v>
@@ -2369,22 +2617,22 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1"/>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>"acml_vol varchar(18) ,"\</v>
@@ -2401,22 +2649,22 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>12</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="1"/>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>"frgn_ntby_qty varchar(12) ,"\</v>
@@ -2433,22 +2681,22 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>18</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="1"/>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>"orgn_ntby_qty varchar(18) ,"\</v>
@@ -2465,22 +2713,22 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>12</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>"ivtr_ntby_qty varchar(12) ,"\</v>
@@ -2496,23 +2744,23 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="34.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <v>12</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="1"/>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>"bank_ntby_qty varchar(12) ,"\</v>
@@ -2529,22 +2777,22 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="1"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>"insu_ntby_qty varchar(12) ,"\</v>
@@ -2560,23 +2808,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="34.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
         <v>12</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="1"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v>"mrbn_ntby_qty varchar(12) ,"\</v>
@@ -2593,22 +2841,22 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>12</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="1"/>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>"fund_ntby_qty varchar(12) ,"\</v>
@@ -2624,23 +2872,23 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="34.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>18</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="1"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>"etc_orgt_ntby_vol varchar(18) ,"\</v>
@@ -2656,23 +2904,23 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="34.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>18</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="1"/>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>"etc_corp_ntby_vol varchar(18) ,"\</v>
@@ -2689,22 +2937,22 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="81" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
         <v>18</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G19" t="str">
@@ -2723,22 +2971,22 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
         <v>18</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="1"/>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>"orgn_ntby_tr_pbmn varchar(18) ,"\</v>
@@ -2755,22 +3003,22 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
         <v>18</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="1"/>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>"ivtr_ntby_tr_pbmn varchar(18) ,"\</v>
@@ -2787,22 +3035,22 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>18</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="1"/>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>"bank_ntby_tr_pbmn varchar(18) ,"\</v>
@@ -2819,22 +3067,22 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
         <v>18</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="1"/>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>"insu_ntby_tr_pbmn varchar(18) ,"\</v>
@@ -2851,22 +3099,22 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
         <v>18</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="1"/>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v>"mrbn_ntby_tr_pbmn varchar(18) ,"\</v>
@@ -2883,22 +3131,22 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="23.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
         <v>18</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="1"/>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>"fund_ntby_tr_pbmn varchar(18) ,"\</v>
@@ -2915,22 +3163,22 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="34.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
         <v>18</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1"/>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v>"etc_orgt_ntby_tr_pbmn varchar(18) ,"\</v>
@@ -2947,22 +3195,22 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="34.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
         <v>18</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="2"/>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v>"etc_corp_ntby_tr_pbmn varchar(18) ,"\</v>
@@ -2989,400 +3237,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEA2399-539F-4A8F-98C9-0A216AA56A33}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>18</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>12</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>10</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
         <v>12</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
         <v>2</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="C25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
         <v>12</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="B18:B24"/>
     <mergeCell ref="C18:C24"/>
     <mergeCell ref="D18:D24"/>
     <mergeCell ref="E18:E24"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
